--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCDE/15/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCDE/15/seed3/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.956099999999996</v>
+        <v>-6.964699999999993</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.54329999999998</v>
+        <v>-13.64769999999999</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -567,7 +567,7 @@
         <v>-21.27</v>
       </c>
       <c r="B8" t="n">
-        <v>6.017299999999999</v>
+        <v>6.076899999999999</v>
       </c>
       <c r="C8" t="n">
         <v>-14.64</v>
@@ -601,7 +601,7 @@
         <v>-22.54</v>
       </c>
       <c r="B10" t="n">
-        <v>5.027299999999999</v>
+        <v>4.826399999999999</v>
       </c>
       <c r="C10" t="n">
         <v>-12.45</v>
@@ -610,7 +610,7 @@
         <v>-8.85</v>
       </c>
       <c r="E10" t="n">
-        <v>15.9874</v>
+        <v>15.9611</v>
       </c>
     </row>
     <row r="11">
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.056100000000002</v>
+        <v>5.106899999999999</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.74520000000001</v>
+        <v>17.66640000000001</v>
       </c>
     </row>
     <row r="13">
@@ -661,7 +661,7 @@
         <v>-8.359999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>16.14260000000001</v>
+        <v>16.3844</v>
       </c>
     </row>
     <row r="14">
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.6341</v>
+        <v>16.6628</v>
       </c>
     </row>
     <row r="15">
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.96599999999998</v>
+        <v>-13.99339999999998</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -737,13 +737,13 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.667499999999993</v>
+        <v>6.720899999999991</v>
       </c>
       <c r="C18" t="n">
-        <v>-13.65639999999998</v>
+        <v>-13.70679999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>-9.227299999999996</v>
+        <v>-9.014900000000001</v>
       </c>
       <c r="E18" t="n">
         <v>17.03</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-9.102499999999994</v>
+        <v>-9.128099999999991</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.092</v>
+        <v>-12.1341</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.398100000000001</v>
+        <v>-8.722600000000007</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -927,13 +927,13 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-12.15830000000001</v>
+        <v>-11.7873</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>17.4667</v>
+        <v>17.27660000000002</v>
       </c>
     </row>
     <row r="30">
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-12.90149999999999</v>
+        <v>-13.18989999999999</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -961,10 +961,10 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-12.8444</v>
+        <v>-12.71149999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.902000000000008</v>
+        <v>-9.070500000000008</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -984,7 +984,7 @@
         <v>-8.69</v>
       </c>
       <c r="E32" t="n">
-        <v>16.1608</v>
+        <v>15.966</v>
       </c>
     </row>
     <row r="33">
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.60029999999999</v>
+        <v>16.55619999999999</v>
       </c>
     </row>
     <row r="36">
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.730700000000004</v>
+        <v>8.557700000000006</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1083,7 +1083,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-8.209100000000001</v>
+        <v>-8.653100000000002</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-13.07250000000001</v>
+        <v>-13.2374</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1151,7 +1151,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.975099999999991</v>
+        <v>-9.011199999999995</v>
       </c>
       <c r="E42" t="n">
         <v>16.31</v>
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.4059</v>
+        <v>17.42610000000001</v>
       </c>
     </row>
     <row r="44">
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.506799999999998</v>
+        <v>-7.651599999999999</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1236,7 +1236,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.584100000000001</v>
+        <v>-7.4461</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.50510000000001</v>
+        <v>17.46390000000002</v>
       </c>
     </row>
     <row r="49">
@@ -1273,7 +1273,7 @@
         <v>-9.210000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>15.91179999999999</v>
+        <v>15.52809999999999</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.35629999999999</v>
+        <v>-13.67949999999999</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.393</v>
+        <v>16.5171</v>
       </c>
     </row>
     <row r="51">
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>6.341399999999994</v>
+        <v>6.140999999999994</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>15.91740000000002</v>
+        <v>15.9898</v>
       </c>
     </row>
     <row r="57">
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.143099999999999</v>
+        <v>-8.097399999999995</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1542,7 +1542,7 @@
         <v>-11.86</v>
       </c>
       <c r="D65" t="n">
-        <v>-7.674000000000001</v>
+        <v>-7.6391</v>
       </c>
       <c r="E65" t="n">
         <v>17.18</v>
@@ -1587,10 +1587,10 @@
         <v>-21.44</v>
       </c>
       <c r="B68" t="n">
-        <v>5.747499999999999</v>
+        <v>5.488699999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>-11.57610000000001</v>
+        <v>-11.3648</v>
       </c>
       <c r="D68" t="n">
         <v>-7.27</v>
@@ -1613,7 +1613,7 @@
         <v>-6.88</v>
       </c>
       <c r="E69" t="n">
-        <v>17.53310000000003</v>
+        <v>17.44810000000004</v>
       </c>
     </row>
     <row r="70">
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.641299999999997</v>
+        <v>-7.721</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1726,7 +1726,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.33370000000001</v>
+        <v>-12.8677</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1740,7 +1740,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>9.396300000000004</v>
+        <v>9.344900000000001</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1757,7 +1757,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.453300000000002</v>
+        <v>9.365900000000003</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.113500000000005</v>
+        <v>5.122000000000006</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1817,7 +1817,7 @@
         <v>-8.390000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>16.18129999999998</v>
+        <v>16.0194</v>
       </c>
     </row>
     <row r="82">
@@ -1825,7 +1825,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.634200000000004</v>
+        <v>6.010600000000002</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1913,7 +1913,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-14.00389999999998</v>
+        <v>-14.27039999999999</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1930,7 +1930,7 @@
         <v>5.51</v>
       </c>
       <c r="C88" t="n">
-        <v>-13.80769999999998</v>
+        <v>-13.79049999999999</v>
       </c>
       <c r="D88" t="n">
         <v>-8.140000000000001</v>
@@ -1967,7 +1967,7 @@
         <v>-12.06</v>
       </c>
       <c r="D90" t="n">
-        <v>-7.995200000000003</v>
+        <v>-7.876900000000004</v>
       </c>
       <c r="E90" t="n">
         <v>16.68</v>
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.42330000000001</v>
+        <v>18.52000000000002</v>
       </c>
     </row>
     <row r="93">
@@ -2035,7 +2035,7 @@
         <v>-10.65</v>
       </c>
       <c r="D94" t="n">
-        <v>-6.835599999999999</v>
+        <v>-6.787699999999997</v>
       </c>
       <c r="E94" t="n">
         <v>17.92</v>
@@ -2052,7 +2052,7 @@
         <v>-10.47</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.727899999999996</v>
+        <v>-7.765799999999993</v>
       </c>
       <c r="E95" t="n">
         <v>16.44</v>
@@ -2066,7 +2066,7 @@
         <v>5.8</v>
       </c>
       <c r="C96" t="n">
-        <v>-12.62430000000001</v>
+        <v>-13.3234</v>
       </c>
       <c r="D96" t="n">
         <v>-8.529999999999999</v>
@@ -2100,7 +2100,7 @@
         <v>4.73</v>
       </c>
       <c r="C98" t="n">
-        <v>-12.17619999999999</v>
+        <v>-11.95999999999999</v>
       </c>
       <c r="D98" t="n">
         <v>-9.33</v>
@@ -2151,10 +2151,10 @@
         <v>7.61</v>
       </c>
       <c r="C101" t="n">
-        <v>-13.14000000000001</v>
+        <v>-13.8705</v>
       </c>
       <c r="D101" t="n">
-        <v>-8.107999999999993</v>
+        <v>-8.043099999999997</v>
       </c>
       <c r="E101" t="n">
         <v>16.32</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-12.9067</v>
+        <v>-13.26880000000001</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
